--- a/開発/amazon_lambda開発.xlsx
+++ b/開発/amazon_lambda開発.xlsx
@@ -1,21 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1290" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>// set.add[] {consCode, count} consName分野をcount個追加する(初期値1）</t>
+  </si>
+  <si>
+    <t>// set.inp[] {inputCode, value} inputCodeの値をvalueに設定する</t>
+  </si>
+  <si>
+    <t>// set.measureadd[] num 対策番号num を選択する</t>
+  </si>
+  <si>
+    <t>// get.target 分野consName　文字がなければ　consTotal</t>
+  </si>
+  <si>
+    <t>// get.common 1 共通</t>
+  </si>
+  <si>
+    <t>// get.monthly 1 月の消費詳細</t>
+  </si>
+  <si>
+    <t>// get.average 1 平均値</t>
+  </si>
+  <si>
+    <t>// get.average_graph 1 グラフ作成用平均値</t>
+  </si>
+  <si>
+    <t>// get.itemize 1 うちわけ</t>
+  </si>
+  <si>
+    <t>// get.itemize_graph 1 グラフ作成用うちわけ</t>
+  </si>
+  <si>
+    <t>// get.measure 1 分野の対策（最大15項目）</t>
+  </si>
+  <si>
+    <t>// get.measure_all 1 分野対策すべて</t>
+  </si>
+  <si>
+    <t>// get.measure_detail measureID measureIDの詳細を取得</t>
+  </si>
+  <si>
+    <t>分野（画面）の入力項目一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cons構造の一覧</t>
+    <rPh sb="4" eb="6">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部屋構造の一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>照明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷房</t>
+    <rPh sb="0" eb="2">
+      <t>レイボウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>暖房</t>
+    <rPh sb="0" eb="2">
+      <t>ダンボウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力画面・項目の生成</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,13 +153,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,19 +193,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +504,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>